--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,229 +22,349 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>512660</t>
+  </si>
+  <si>
+    <t>161024</t>
+  </si>
+  <si>
+    <t>160630</t>
+  </si>
+  <si>
+    <t>512710</t>
+  </si>
+  <si>
+    <t>512680</t>
+  </si>
+  <si>
+    <t>164402</t>
+  </si>
+  <si>
+    <t>000596</t>
+  </si>
+  <si>
+    <t>512670</t>
+  </si>
+  <si>
     <t>160643</t>
   </si>
   <si>
+    <t>163115</t>
+  </si>
+  <si>
+    <t>501019</t>
+  </si>
+  <si>
+    <t>002199</t>
+  </si>
+  <si>
+    <t>502003</t>
+  </si>
+  <si>
     <t>010364</t>
   </si>
   <si>
-    <t>501019</t>
-  </si>
-  <si>
     <t>512560</t>
   </si>
   <si>
-    <t>512660</t>
-  </si>
-  <si>
-    <t>512680</t>
+    <t>020022</t>
+  </si>
+  <si>
+    <t>005774</t>
   </si>
   <si>
     <t>512810</t>
   </si>
   <si>
-    <t>020022</t>
-  </si>
-  <si>
-    <t>164402</t>
-  </si>
-  <si>
-    <t>005774</t>
-  </si>
-  <si>
-    <t>000596</t>
-  </si>
-  <si>
-    <t>002199</t>
-  </si>
-  <si>
-    <t>502003</t>
-  </si>
-  <si>
-    <t>512670</t>
-  </si>
-  <si>
-    <t>512710</t>
-  </si>
-  <si>
-    <t>160630</t>
-  </si>
-  <si>
-    <t>161024</t>
-  </si>
-  <si>
-    <t>163115</t>
-  </si>
-  <si>
     <t>002885</t>
   </si>
   <si>
+    <t>国泰中证军工ETF</t>
+  </si>
+  <si>
+    <t>富国中证军工指数</t>
+  </si>
+  <si>
+    <t>鹏华中证国防指数（LOF）</t>
+  </si>
+  <si>
+    <t>富国中证军工龙头ETF</t>
+  </si>
+  <si>
+    <t>广发中证军工ETF</t>
+  </si>
+  <si>
+    <t>前海开源中航军工指数</t>
+  </si>
+  <si>
+    <t>前海开源中证军工指数A</t>
+  </si>
+  <si>
+    <t>鹏华中证国防ETF</t>
+  </si>
+  <si>
     <t>鹏华中证空天一体军工指数（LOF）A</t>
   </si>
   <si>
+    <t>申万菱信中证军工指数A</t>
+  </si>
+  <si>
+    <t>国泰国证航天军工指数（LOF）</t>
+  </si>
+  <si>
+    <t>前海开源中证军工指数C</t>
+  </si>
+  <si>
+    <t>易方达军工指数（LOF）A</t>
+  </si>
+  <si>
     <t>鹏华中证空天一体军工指数（LOF）C</t>
   </si>
   <si>
-    <t>国泰国证航天军工指数（LOF）</t>
-  </si>
-  <si>
     <t>易方达中证军工ETF</t>
   </si>
   <si>
-    <t>国泰中证军工ETF</t>
-  </si>
-  <si>
-    <t>广发中证军工ETF</t>
+    <t>国泰策略价值灵活配置混合</t>
+  </si>
+  <si>
+    <t>华夏产业升级混合</t>
   </si>
   <si>
     <t>华宝兴业中证军工ETF</t>
   </si>
   <si>
-    <t>国泰策略价值灵活配置混合</t>
-  </si>
-  <si>
-    <t>前海开源中航军工指数</t>
-  </si>
-  <si>
-    <t>华夏产业升级混合</t>
-  </si>
-  <si>
-    <t>前海开源中证军工指数A</t>
-  </si>
-  <si>
-    <t>前海开源中证军工指数C</t>
-  </si>
-  <si>
-    <t>易方达军工指数（LOF）A</t>
-  </si>
-  <si>
-    <t>鹏华中证国防ETF</t>
-  </si>
-  <si>
-    <t>富国中证军工龙头ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证国防指数（LOF）</t>
-  </si>
-  <si>
-    <t>富国中证军工指数</t>
-  </si>
-  <si>
-    <t>申万菱信中证军工指数A</t>
-  </si>
-  <si>
     <t>摩根士丹利华鑫万众创新灵活配置混合</t>
   </si>
   <si>
+    <t>124.04</t>
+  </si>
+  <si>
+    <t>66.92</t>
+  </si>
+  <si>
+    <t>54.54</t>
+  </si>
+  <si>
+    <t>59.66</t>
+  </si>
+  <si>
+    <t>46.03</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
+    <t>21.24</t>
+  </si>
+  <si>
+    <t>12.71</t>
+  </si>
+  <si>
+    <t>12.79</t>
+  </si>
+  <si>
+    <t>12.85</t>
+  </si>
+  <si>
+    <t>11.67</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>6.33</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>99.53</t>
+  </si>
+  <si>
+    <t>92.42</t>
+  </si>
+  <si>
+    <t>94.24</t>
+  </si>
+  <si>
+    <t>99.15</t>
+  </si>
+  <si>
+    <t>99.29</t>
+  </si>
+  <si>
+    <t>93.83</t>
+  </si>
+  <si>
+    <t>93.52</t>
+  </si>
+  <si>
+    <t>97.80</t>
+  </si>
+  <si>
     <t>95.00</t>
   </si>
   <si>
+    <t>93.85</t>
+  </si>
+  <si>
     <t>94.20</t>
   </si>
   <si>
+    <t>94.41</t>
+  </si>
+  <si>
     <t>97.74</t>
   </si>
   <si>
-    <t>99.53</t>
-  </si>
-  <si>
-    <t>99.29</t>
+    <t>74.89</t>
+  </si>
+  <si>
+    <t>93.95</t>
   </si>
   <si>
     <t>98.68</t>
   </si>
   <si>
-    <t>74.89</t>
-  </si>
-  <si>
-    <t>93.83</t>
-  </si>
-  <si>
-    <t>93.95</t>
-  </si>
-  <si>
-    <t>93.52</t>
-  </si>
-  <si>
-    <t>94.41</t>
-  </si>
-  <si>
-    <t>97.80</t>
-  </si>
-  <si>
-    <t>99.15</t>
-  </si>
-  <si>
-    <t>94.24</t>
-  </si>
-  <si>
-    <t>92.42</t>
-  </si>
-  <si>
-    <t>93.85</t>
-  </si>
-  <si>
     <t>94.23</t>
   </si>
   <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>4.97</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>6.42</t>
+  </si>
+  <si>
     <t>6.21</t>
   </si>
   <si>
+    <t>5.04</t>
+  </si>
+  <si>
     <t>4.21</t>
   </si>
   <si>
+    <t>5.06</t>
+  </si>
+  <si>
     <t>5.23</t>
   </si>
   <si>
-    <t>5.37</t>
-  </si>
-  <si>
-    <t>5.35</t>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>5.44</t>
   </si>
   <si>
     <t>5.28</t>
   </si>
   <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>5.70</t>
-  </si>
-  <si>
-    <t>5.44</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>5.06</t>
-  </si>
-  <si>
-    <t>6.42</t>
-  </si>
-  <si>
-    <t>5.52</t>
-  </si>
-  <si>
-    <t>6.09</t>
-  </si>
-  <si>
-    <t>4.97</t>
-  </si>
-  <si>
-    <t>5.04</t>
-  </si>
-  <si>
     <t>5.43</t>
+  </si>
+  <si>
+    <t>6.6609</t>
+  </si>
+  <si>
+    <t>3.3259</t>
+  </si>
+  <si>
+    <t>3.3215</t>
+  </si>
+  <si>
+    <t>3.2932</t>
+  </si>
+  <si>
+    <t>2.4626</t>
+  </si>
+  <si>
+    <t>1.0944</t>
+  </si>
+  <si>
+    <t>0.9664</t>
+  </si>
+  <si>
+    <t>0.8160</t>
+  </si>
+  <si>
+    <t>0.7943</t>
+  </si>
+  <si>
+    <t>0.6476</t>
+  </si>
+  <si>
+    <t>0.4913</t>
+  </si>
+  <si>
+    <t>0.4150</t>
+  </si>
+  <si>
+    <t>0.3203</t>
+  </si>
+  <si>
+    <t>0.2745</t>
+  </si>
+  <si>
+    <t>0.2354</t>
+  </si>
+  <si>
+    <t>0.1578</t>
+  </si>
+  <si>
+    <t>0.1344</t>
+  </si>
+  <si>
+    <t>0.1167</t>
+  </si>
+  <si>
+    <t>0.0223</t>
   </si>
 </sst>
 </file>
@@ -602,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,384 +744,504 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2035,4 +2036,1198 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2764</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2263</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1924</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7350</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3230,4 +3231,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3239,7 +3240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3250,17 +3251,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3270,14 +3291,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.52</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3286,14 +3329,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.91</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3302,13 +3367,2983 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5767</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0502</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6625</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5795</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2785</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2688</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1447</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0306</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9335</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8755</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7298</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4751</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>19</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>25.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6258,7 +6259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6269,17 +6270,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6289,14 +6310,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.08</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6305,14 +6348,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.52</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6321,14 +6386,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.91</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6337,13 +6424,3263 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5966</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2637</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1724</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4611</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3326</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>25.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9579,7 +9580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9590,17 +9591,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9610,14 +9631,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.51</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9626,14 +9669,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.08</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -9642,14 +9707,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.52</v>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9658,14 +9745,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.91</v>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -9674,13 +9783,3539 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8617</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1874</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7580</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6237</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5510</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3275</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004486</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实稳怡债券</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>25.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>38.77</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>37.51</v>
+        <v>38.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D4" t="n">
-        <v>39.08</v>
+        <v>37.51</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>32.52</v>
+        <v>39.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>27.91</v>
+        <v>32.52</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>25.55</v>
       </c>
     </row>
@@ -583,6 +600,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4283</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013018</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4200,7 +6361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7520,7 +9681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10538,7 +12699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11732,7 +13893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12546,7 +14707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
+++ b/数据整理/stocks/A股/深证主板/000768-中航西飞.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>23.95</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>38.77</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>37.51</v>
+        <v>38.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>39.08</v>
+        <v>37.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D6" t="n">
-        <v>32.52</v>
+        <v>39.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>27.91</v>
+        <v>32.52</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>25.55</v>
       </c>
     </row>
@@ -600,6 +617,3478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3830</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159638</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证高端装备细分50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8094</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7780</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6779</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3545</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015789</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢高端装备智选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012213</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012212</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012495</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银双核动力混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>016113</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015790</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢高端装备智选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>016114</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>016263</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2743,7 +6232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6361,7 +9850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9681,7 +13170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12699,7 +16188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13893,7 +17382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14707,7 +18196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
